--- a/target/test-classes/excel/testData.xlsx
+++ b/target/test-classes/excel/testData.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\DataDrivenFramework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse_projects\Data-Driven-Framework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4202E21F-03A0-4316-ACAA-1AF86F7FE3B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="3540" yWindow="2160" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,10 +24,47 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>Sohaib</t>
+  </si>
+  <si>
+    <t>Majeed</t>
+  </si>
+  <si>
+    <t>123wp</t>
+  </si>
+  <si>
+    <t>alertText</t>
+  </si>
+  <si>
+    <t>Customer added successfully</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -54,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -335,13 +374,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/target/test-classes/excel/testData.xlsx
+++ b/target/test-classes/excel/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse_projects\Data-Driven-Framework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4202E21F-03A0-4316-ACAA-1AF86F7FE3B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CF257A-1BF4-4EAC-A3C5-90A3B0EF817D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="2160" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,14 +378,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">

--- a/target/test-classes/excel/testData.xlsx
+++ b/target/test-classes/excel/testData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse_projects\Data-Driven-Framework\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse_projects\Data-Driven-Framework\target\test-classes\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CF257A-1BF4-4EAC-A3C5-90A3B0EF817D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD800859-D422-4210-9040-44FAA543B0B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="2160" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
